--- a/Group_16_copycopy.xlsx
+++ b/Group_16_copycopy.xlsx
@@ -764,7 +764,7 @@
         <v>44927.875</v>
       </c>
       <c r="E2" s="8">
-        <v>44927.97222222222</v>
+        <v>44927.916666666664</v>
       </c>
       <c r="F2" s="9">
         <v>12549.8801694007</v>

--- a/Group_16_copycopy.xlsx
+++ b/Group_16_copycopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Flight"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
   <si>
     <t>Itin No.</t>
   </si>
@@ -226,9 +226,6 @@
     <t>TAT</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>From Itinerary</t>
   </si>
   <si>
@@ -241,49 +238,7 @@
     <t>AR2000</t>
   </si>
   <si>
-    <t>MMMX</t>
-  </si>
-  <si>
     <t>AR1920</t>
-  </si>
-  <si>
-    <t>CYYZ</t>
-  </si>
-  <si>
-    <t>AR1365</t>
-  </si>
-  <si>
-    <t>AR9000</t>
-  </si>
-  <si>
-    <t>AR1673</t>
-  </si>
-  <si>
-    <t>ZSPD</t>
-  </si>
-  <si>
-    <t>AR1260</t>
-  </si>
-  <si>
-    <t>CYVR</t>
-  </si>
-  <si>
-    <t>AR1255</t>
-  </si>
-  <si>
-    <t>AR1825</t>
-  </si>
-  <si>
-    <t>AR8000</t>
-  </si>
-  <si>
-    <t>AR1471</t>
-  </si>
-  <si>
-    <t>AR1292</t>
-  </si>
-  <si>
-    <t>AR1240</t>
   </si>
 </sst>
 </file>
@@ -301,13 +256,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -339,16 +294,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -362,26 +314,35 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -392,10 +353,16 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="21" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
   </cellXfs>
@@ -702,20 +669,20 @@
   </sheetPr>
   <dimension ref="A1:J105"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="19" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="21" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="21" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -728,31 +695,31 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>33</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -760,31 +727,31 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8">
-        <v>44927.875</v>
-      </c>
-      <c r="E2" s="8">
-        <v>44927.916666666664</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="16">
+        <v>44927.583333333336</v>
+      </c>
+      <c r="E2" s="16">
+        <v>44927.625</v>
+      </c>
+      <c r="F2" s="6">
         <v>12549.8801694007</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>14009.60818578573</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>10035.64425315567</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>10137.52325060145</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>4500</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>9</v>
@@ -792,25 +759,25 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
-        <v>44927.833333333336</v>
-      </c>
-      <c r="E3" s="8">
-        <v>44927.84027777778</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="16">
+        <v>44927.708333333336</v>
+      </c>
+      <c r="E3" s="16">
+        <v>44927.75</v>
+      </c>
+      <c r="F3" s="6">
         <v>19539.19551055278</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>23924.40251546406</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>1000000</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>1000000</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -818,1225 +785,1225 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="3"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="3"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="3"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="3"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19"/>
+      <c r="J17" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="19"/>
+      <c r="J22" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="19"/>
+      <c r="I24" s="19"/>
+      <c r="J24" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="19"/>
+      <c r="I26" s="19"/>
+      <c r="J26" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="18"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="8"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="17"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="8"/>
-      <c r="F37" s="16"/>
-      <c r="G37" s="16"/>
-      <c r="H37" s="17"/>
-      <c r="I37" s="17"/>
-      <c r="J37" s="17"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
-      <c r="D38" s="8"/>
-      <c r="E38" s="8"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="16"/>
-      <c r="H38" s="17"/>
-      <c r="I38" s="17"/>
-      <c r="J38" s="17"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
-      <c r="D39" s="8"/>
-      <c r="E39" s="8"/>
-      <c r="F39" s="16"/>
-      <c r="G39" s="16"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="17"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="18"/>
+      <c r="G39" s="18"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
-      <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="16"/>
-      <c r="G40" s="16"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="17"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
-      <c r="F41" s="16"/>
-      <c r="G41" s="16"/>
-      <c r="H41" s="17"/>
-      <c r="I41" s="17"/>
-      <c r="J41" s="17"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
-      <c r="F42" s="16"/>
-      <c r="G42" s="16"/>
-      <c r="H42" s="17"/>
-      <c r="I42" s="17"/>
-      <c r="J42" s="17"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
-      <c r="D43" s="8"/>
-      <c r="E43" s="8"/>
-      <c r="F43" s="16"/>
-      <c r="G43" s="16"/>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="19"/>
+      <c r="I43" s="19"/>
+      <c r="J43" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
-      <c r="D44" s="8"/>
-      <c r="E44" s="8"/>
-      <c r="F44" s="16"/>
-      <c r="G44" s="16"/>
-      <c r="H44" s="17"/>
-      <c r="I44" s="17"/>
-      <c r="J44" s="17"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="18"/>
+      <c r="H44" s="19"/>
+      <c r="I44" s="19"/>
+      <c r="J44" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
-      <c r="D45" s="8"/>
-      <c r="E45" s="8"/>
-      <c r="F45" s="16"/>
-      <c r="G45" s="16"/>
-      <c r="H45" s="17"/>
-      <c r="I45" s="17"/>
-      <c r="J45" s="17"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="19"/>
+      <c r="I45" s="19"/>
+      <c r="J45" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
-      <c r="D46" s="8"/>
-      <c r="E46" s="8"/>
-      <c r="F46" s="16"/>
-      <c r="G46" s="16"/>
-      <c r="H46" s="17"/>
-      <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="19"/>
+      <c r="I46" s="19"/>
+      <c r="J46" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
-      <c r="D47" s="8"/>
-      <c r="E47" s="8"/>
-      <c r="F47" s="16"/>
-      <c r="G47" s="16"/>
-      <c r="H47" s="17"/>
-      <c r="I47" s="17"/>
-      <c r="J47" s="17"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="18"/>
+      <c r="G47" s="18"/>
+      <c r="H47" s="19"/>
+      <c r="I47" s="19"/>
+      <c r="J47" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
-      <c r="D48" s="8"/>
-      <c r="E48" s="8"/>
-      <c r="F48" s="16"/>
-      <c r="G48" s="16"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="17"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="19"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="8"/>
-      <c r="F49" s="16"/>
-      <c r="G49" s="16"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
+      <c r="J49" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
-      <c r="D50" s="8"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="16"/>
-      <c r="G50" s="16"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="18"/>
+      <c r="G50" s="18"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
+      <c r="J50" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="18"/>
-      <c r="F51" s="16"/>
-      <c r="G51" s="16"/>
-      <c r="H51" s="17"/>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="18"/>
+      <c r="G51" s="18"/>
+      <c r="H51" s="19"/>
+      <c r="I51" s="19"/>
+      <c r="J51" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="8"/>
-      <c r="E52" s="8"/>
-      <c r="F52" s="16"/>
-      <c r="G52" s="16"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="17"/>
+      <c r="D52" s="5"/>
+      <c r="E52" s="5"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="18"/>
+      <c r="H52" s="19"/>
+      <c r="I52" s="19"/>
+      <c r="J52" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
-      <c r="D53" s="8"/>
-      <c r="E53" s="8"/>
-      <c r="F53" s="16"/>
-      <c r="G53" s="16"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="17"/>
+      <c r="D53" s="5"/>
+      <c r="E53" s="5"/>
+      <c r="F53" s="18"/>
+      <c r="G53" s="18"/>
+      <c r="H53" s="19"/>
+      <c r="I53" s="19"/>
+      <c r="J53" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
-      <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
-      <c r="F54" s="16"/>
-      <c r="G54" s="16"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="17"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="19"/>
+      <c r="I54" s="19"/>
+      <c r="J54" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
-      <c r="D55" s="8"/>
-      <c r="E55" s="8"/>
-      <c r="F55" s="16"/>
-      <c r="G55" s="16"/>
-      <c r="H55" s="17"/>
-      <c r="I55" s="17"/>
-      <c r="J55" s="17"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="19"/>
+      <c r="I55" s="19"/>
+      <c r="J55" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
-      <c r="D56" s="8"/>
-      <c r="E56" s="8"/>
-      <c r="F56" s="16"/>
-      <c r="G56" s="16"/>
-      <c r="H56" s="17"/>
-      <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="19"/>
+      <c r="I56" s="19"/>
+      <c r="J56" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
-      <c r="D57" s="8"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="16"/>
-      <c r="G57" s="16"/>
-      <c r="H57" s="17"/>
-      <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="18"/>
+      <c r="G57" s="18"/>
+      <c r="H57" s="19"/>
+      <c r="I57" s="19"/>
+      <c r="J57" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
-      <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="16"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="18"/>
+      <c r="G58" s="18"/>
+      <c r="H58" s="19"/>
+      <c r="I58" s="19"/>
+      <c r="J58" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
-      <c r="D59" s="8"/>
-      <c r="E59" s="8"/>
-      <c r="F59" s="16"/>
-      <c r="G59" s="16"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="D59" s="5"/>
+      <c r="E59" s="5"/>
+      <c r="F59" s="18"/>
+      <c r="G59" s="18"/>
+      <c r="H59" s="19"/>
+      <c r="I59" s="19"/>
+      <c r="J59" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
-      <c r="D60" s="8"/>
-      <c r="E60" s="8"/>
-      <c r="F60" s="16"/>
-      <c r="G60" s="16"/>
-      <c r="H60" s="17"/>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="18"/>
+      <c r="G60" s="18"/>
+      <c r="H60" s="19"/>
+      <c r="I60" s="19"/>
+      <c r="J60" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
-      <c r="D61" s="8"/>
-      <c r="E61" s="8"/>
-      <c r="F61" s="16"/>
-      <c r="G61" s="16"/>
-      <c r="H61" s="17"/>
-      <c r="I61" s="17"/>
-      <c r="J61" s="17"/>
+      <c r="D61" s="5"/>
+      <c r="E61" s="5"/>
+      <c r="F61" s="18"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="19"/>
+      <c r="I61" s="19"/>
+      <c r="J61" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="8"/>
-      <c r="E62" s="8"/>
-      <c r="F62" s="16"/>
-      <c r="G62" s="16"/>
-      <c r="H62" s="17"/>
-      <c r="I62" s="17"/>
-      <c r="J62" s="17"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="18"/>
+      <c r="G62" s="18"/>
+      <c r="H62" s="19"/>
+      <c r="I62" s="19"/>
+      <c r="J62" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
-      <c r="D63" s="8"/>
-      <c r="E63" s="8"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="17"/>
-      <c r="I63" s="17"/>
-      <c r="J63" s="17"/>
+      <c r="D63" s="5"/>
+      <c r="E63" s="5"/>
+      <c r="F63" s="18"/>
+      <c r="G63" s="18"/>
+      <c r="H63" s="19"/>
+      <c r="I63" s="19"/>
+      <c r="J63" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="8"/>
-      <c r="E64" s="8"/>
-      <c r="F64" s="16"/>
-      <c r="G64" s="16"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="17"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="18"/>
+      <c r="G64" s="18"/>
+      <c r="H64" s="19"/>
+      <c r="I64" s="19"/>
+      <c r="J64" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
-      <c r="D65" s="8"/>
-      <c r="E65" s="8"/>
-      <c r="F65" s="16"/>
-      <c r="G65" s="16"/>
-      <c r="H65" s="17"/>
-      <c r="I65" s="17"/>
-      <c r="J65" s="17"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="18"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
-      <c r="D66" s="8"/>
-      <c r="E66" s="8"/>
-      <c r="F66" s="16"/>
-      <c r="G66" s="16"/>
-      <c r="H66" s="17"/>
-      <c r="I66" s="17"/>
-      <c r="J66" s="17"/>
+      <c r="D66" s="5"/>
+      <c r="E66" s="5"/>
+      <c r="F66" s="18"/>
+      <c r="G66" s="18"/>
+      <c r="H66" s="19"/>
+      <c r="I66" s="19"/>
+      <c r="J66" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
-      <c r="D67" s="8"/>
-      <c r="E67" s="8"/>
-      <c r="F67" s="16"/>
-      <c r="G67" s="16"/>
-      <c r="H67" s="17"/>
-      <c r="I67" s="17"/>
-      <c r="J67" s="17"/>
+      <c r="D67" s="5"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="18"/>
+      <c r="G67" s="18"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+      <c r="J67" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="8"/>
-      <c r="E68" s="8"/>
-      <c r="F68" s="16"/>
-      <c r="G68" s="16"/>
-      <c r="H68" s="17"/>
-      <c r="I68" s="17"/>
-      <c r="J68" s="17"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
+      <c r="F68" s="18"/>
+      <c r="G68" s="18"/>
+      <c r="H68" s="19"/>
+      <c r="I68" s="19"/>
+      <c r="J68" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
-      <c r="D69" s="8"/>
-      <c r="E69" s="8"/>
-      <c r="F69" s="16"/>
-      <c r="G69" s="16"/>
-      <c r="H69" s="17"/>
-      <c r="I69" s="17"/>
-      <c r="J69" s="17"/>
+      <c r="D69" s="5"/>
+      <c r="E69" s="5"/>
+      <c r="F69" s="18"/>
+      <c r="G69" s="18"/>
+      <c r="H69" s="19"/>
+      <c r="I69" s="19"/>
+      <c r="J69" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
-      <c r="F70" s="16"/>
-      <c r="G70" s="16"/>
-      <c r="H70" s="17"/>
-      <c r="I70" s="17"/>
-      <c r="J70" s="17"/>
+      <c r="D70" s="5"/>
+      <c r="E70" s="5"/>
+      <c r="F70" s="18"/>
+      <c r="G70" s="18"/>
+      <c r="H70" s="19"/>
+      <c r="I70" s="19"/>
+      <c r="J70" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
-      <c r="D71" s="8"/>
-      <c r="E71" s="8"/>
-      <c r="F71" s="16"/>
-      <c r="G71" s="16"/>
-      <c r="H71" s="17"/>
-      <c r="I71" s="17"/>
-      <c r="J71" s="17"/>
+      <c r="D71" s="5"/>
+      <c r="E71" s="5"/>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18"/>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
-      <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
-      <c r="F72" s="16"/>
-      <c r="G72" s="16"/>
-      <c r="H72" s="17"/>
-      <c r="I72" s="17"/>
-      <c r="J72" s="17"/>
+      <c r="D72" s="5"/>
+      <c r="E72" s="5"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="18"/>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
-      <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="16"/>
-      <c r="G73" s="16"/>
-      <c r="H73" s="17"/>
-      <c r="I73" s="17"/>
-      <c r="J73" s="17"/>
+      <c r="D73" s="5"/>
+      <c r="E73" s="5"/>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18"/>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
-      <c r="D74" s="8"/>
-      <c r="E74" s="8"/>
-      <c r="F74" s="16"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18"/>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="8"/>
-      <c r="E75" s="8"/>
-      <c r="F75" s="16"/>
-      <c r="G75" s="16"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
-      <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
-      <c r="F76" s="16"/>
-      <c r="G76" s="16"/>
-      <c r="H76" s="17"/>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="D76" s="5"/>
+      <c r="E76" s="5"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18"/>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="8"/>
-      <c r="E77" s="8"/>
-      <c r="F77" s="16"/>
-      <c r="G77" s="16"/>
-      <c r="H77" s="17"/>
-      <c r="I77" s="17"/>
-      <c r="J77" s="17"/>
+      <c r="D77" s="5"/>
+      <c r="E77" s="5"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18"/>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="16"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="17"/>
-      <c r="I78" s="17"/>
-      <c r="J78" s="17"/>
+      <c r="D78" s="5"/>
+      <c r="E78" s="5"/>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18"/>
+      <c r="H78" s="19"/>
+      <c r="I78" s="19"/>
+      <c r="J78" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="16"/>
-      <c r="G79" s="16"/>
-      <c r="H79" s="17"/>
-      <c r="I79" s="17"/>
-      <c r="J79" s="17"/>
+      <c r="D79" s="5"/>
+      <c r="E79" s="5"/>
+      <c r="F79" s="18"/>
+      <c r="G79" s="18"/>
+      <c r="H79" s="19"/>
+      <c r="I79" s="19"/>
+      <c r="J79" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="16"/>
-      <c r="G80" s="16"/>
-      <c r="H80" s="17"/>
-      <c r="I80" s="17"/>
-      <c r="J80" s="17"/>
+      <c r="D80" s="5"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="19"/>
+      <c r="I80" s="19"/>
+      <c r="J80" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="16"/>
-      <c r="G81" s="16"/>
-      <c r="H81" s="17"/>
-      <c r="I81" s="17"/>
-      <c r="J81" s="17"/>
+      <c r="D81" s="5"/>
+      <c r="E81" s="5"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="19"/>
+      <c r="I81" s="19"/>
+      <c r="J81" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="16"/>
-      <c r="G82" s="16"/>
-      <c r="H82" s="17"/>
-      <c r="I82" s="17"/>
-      <c r="J82" s="17"/>
+      <c r="D82" s="5"/>
+      <c r="E82" s="5"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="18"/>
+      <c r="H82" s="19"/>
+      <c r="I82" s="19"/>
+      <c r="J82" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="16"/>
-      <c r="G83" s="16"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
+      <c r="D83" s="5"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="18"/>
+      <c r="G83" s="18"/>
+      <c r="H83" s="19"/>
+      <c r="I83" s="19"/>
+      <c r="J83" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="16"/>
-      <c r="G84" s="16"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
+      <c r="D84" s="5"/>
+      <c r="E84" s="5"/>
+      <c r="F84" s="18"/>
+      <c r="G84" s="18"/>
+      <c r="H84" s="19"/>
+      <c r="I84" s="19"/>
+      <c r="J84" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="16"/>
-      <c r="G85" s="16"/>
-      <c r="H85" s="17"/>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
+      <c r="D85" s="5"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="18"/>
+      <c r="H85" s="19"/>
+      <c r="I85" s="19"/>
+      <c r="J85" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="16"/>
-      <c r="G86" s="16"/>
-      <c r="H86" s="17"/>
-      <c r="I86" s="17"/>
-      <c r="J86" s="17"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="18"/>
+      <c r="G86" s="18"/>
+      <c r="H86" s="19"/>
+      <c r="I86" s="19"/>
+      <c r="J86" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="16"/>
-      <c r="G87" s="16"/>
-      <c r="H87" s="17"/>
-      <c r="I87" s="17"/>
-      <c r="J87" s="17"/>
+      <c r="D87" s="5"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="18"/>
+      <c r="G87" s="18"/>
+      <c r="H87" s="19"/>
+      <c r="I87" s="19"/>
+      <c r="J87" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="16"/>
-      <c r="H88" s="17"/>
-      <c r="I88" s="17"/>
-      <c r="J88" s="17"/>
+      <c r="D88" s="5"/>
+      <c r="E88" s="5"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="18"/>
+      <c r="H88" s="19"/>
+      <c r="I88" s="19"/>
+      <c r="J88" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="16"/>
-      <c r="G89" s="16"/>
-      <c r="H89" s="17"/>
-      <c r="I89" s="17"/>
-      <c r="J89" s="17"/>
+      <c r="D89" s="5"/>
+      <c r="E89" s="5"/>
+      <c r="F89" s="18"/>
+      <c r="G89" s="18"/>
+      <c r="H89" s="19"/>
+      <c r="I89" s="19"/>
+      <c r="J89" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="16"/>
-      <c r="G90" s="16"/>
-      <c r="H90" s="17"/>
-      <c r="I90" s="17"/>
-      <c r="J90" s="17"/>
+      <c r="D90" s="5"/>
+      <c r="E90" s="5"/>
+      <c r="F90" s="18"/>
+      <c r="G90" s="18"/>
+      <c r="H90" s="19"/>
+      <c r="I90" s="19"/>
+      <c r="J90" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="16"/>
-      <c r="G91" s="16"/>
-      <c r="H91" s="17"/>
-      <c r="I91" s="17"/>
-      <c r="J91" s="17"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="18"/>
+      <c r="G91" s="18"/>
+      <c r="H91" s="19"/>
+      <c r="I91" s="19"/>
+      <c r="J91" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="18"/>
-      <c r="E92" s="18"/>
-      <c r="F92" s="16"/>
-      <c r="G92" s="16"/>
-      <c r="H92" s="17"/>
-      <c r="I92" s="17"/>
-      <c r="J92" s="17"/>
+      <c r="D92" s="20"/>
+      <c r="E92" s="20"/>
+      <c r="F92" s="18"/>
+      <c r="G92" s="18"/>
+      <c r="H92" s="19"/>
+      <c r="I92" s="19"/>
+      <c r="J92" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="16"/>
-      <c r="G93" s="16"/>
-      <c r="H93" s="17"/>
-      <c r="I93" s="17"/>
-      <c r="J93" s="17"/>
+      <c r="D93" s="5"/>
+      <c r="E93" s="5"/>
+      <c r="F93" s="18"/>
+      <c r="G93" s="18"/>
+      <c r="H93" s="19"/>
+      <c r="I93" s="19"/>
+      <c r="J93" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="18"/>
-      <c r="F94" s="16"/>
-      <c r="G94" s="16"/>
-      <c r="H94" s="17"/>
-      <c r="I94" s="17"/>
-      <c r="J94" s="17"/>
+      <c r="D94" s="20"/>
+      <c r="E94" s="20"/>
+      <c r="F94" s="18"/>
+      <c r="G94" s="18"/>
+      <c r="H94" s="19"/>
+      <c r="I94" s="19"/>
+      <c r="J94" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="16"/>
-      <c r="G95" s="16"/>
-      <c r="H95" s="17"/>
-      <c r="I95" s="17"/>
-      <c r="J95" s="17"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="18"/>
+      <c r="G95" s="18"/>
+      <c r="H95" s="19"/>
+      <c r="I95" s="19"/>
+      <c r="J95" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="16"/>
-      <c r="G96" s="16"/>
-      <c r="H96" s="17"/>
-      <c r="I96" s="17"/>
-      <c r="J96" s="17"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="18"/>
+      <c r="G96" s="18"/>
+      <c r="H96" s="19"/>
+      <c r="I96" s="19"/>
+      <c r="J96" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="16"/>
-      <c r="G97" s="16"/>
-      <c r="H97" s="17"/>
-      <c r="I97" s="17"/>
-      <c r="J97" s="17"/>
+      <c r="D97" s="5"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="18"/>
+      <c r="G97" s="18"/>
+      <c r="H97" s="19"/>
+      <c r="I97" s="19"/>
+      <c r="J97" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
-      <c r="D98" s="8"/>
-      <c r="E98" s="8"/>
-      <c r="F98" s="16"/>
-      <c r="G98" s="16"/>
-      <c r="H98" s="17"/>
-      <c r="I98" s="17"/>
-      <c r="J98" s="17"/>
+      <c r="D98" s="5"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="18"/>
+      <c r="G98" s="18"/>
+      <c r="H98" s="19"/>
+      <c r="I98" s="19"/>
+      <c r="J98" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
-      <c r="D99" s="8"/>
-      <c r="E99" s="8"/>
-      <c r="F99" s="16"/>
-      <c r="G99" s="16"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
+      <c r="D99" s="5"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="18"/>
+      <c r="G99" s="18"/>
+      <c r="H99" s="19"/>
+      <c r="I99" s="19"/>
+      <c r="J99" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
-      <c r="D100" s="8"/>
-      <c r="E100" s="8"/>
-      <c r="F100" s="16"/>
-      <c r="G100" s="16"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
+      <c r="D100" s="5"/>
+      <c r="E100" s="5"/>
+      <c r="F100" s="18"/>
+      <c r="G100" s="18"/>
+      <c r="H100" s="19"/>
+      <c r="I100" s="19"/>
+      <c r="J100" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
-      <c r="D101" s="8"/>
-      <c r="E101" s="8"/>
-      <c r="F101" s="16"/>
-      <c r="G101" s="16"/>
-      <c r="H101" s="17"/>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="18"/>
+      <c r="G101" s="18"/>
+      <c r="H101" s="19"/>
+      <c r="I101" s="19"/>
+      <c r="J101" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="16"/>
-      <c r="G102" s="16"/>
-      <c r="H102" s="17"/>
-      <c r="I102" s="17"/>
-      <c r="J102" s="17"/>
+      <c r="D102" s="5"/>
+      <c r="E102" s="5"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="18"/>
+      <c r="H102" s="19"/>
+      <c r="I102" s="19"/>
+      <c r="J102" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
-      <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="16"/>
-      <c r="G103" s="16"/>
-      <c r="H103" s="17"/>
-      <c r="I103" s="17"/>
-      <c r="J103" s="17"/>
+      <c r="D103" s="5"/>
+      <c r="E103" s="5"/>
+      <c r="F103" s="18"/>
+      <c r="G103" s="18"/>
+      <c r="H103" s="19"/>
+      <c r="I103" s="19"/>
+      <c r="J103" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
-      <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
-      <c r="F104" s="16"/>
-      <c r="G104" s="16"/>
-      <c r="H104" s="17"/>
-      <c r="I104" s="17"/>
-      <c r="J104" s="17"/>
+      <c r="D104" s="5"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="18"/>
+      <c r="G104" s="18"/>
+      <c r="H104" s="19"/>
+      <c r="I104" s="19"/>
+      <c r="J104" s="19"/>
     </row>
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
-      <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="16"/>
-      <c r="G105" s="16"/>
-      <c r="H105" s="17"/>
-      <c r="I105" s="17"/>
-      <c r="J105" s="17"/>
+      <c r="D105" s="5"/>
+      <c r="E105" s="5"/>
+      <c r="F105" s="18"/>
+      <c r="G105" s="18"/>
+      <c r="H105" s="19"/>
+      <c r="I105" s="19"/>
+      <c r="J105" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2048,23 +2015,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="14" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2083,15 +2050,15 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2100,384 +2067,46 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
-        <v>33</v>
-      </c>
-      <c r="E2" s="3">
+      <c r="D2" s="1">
+        <v>500</v>
+      </c>
+      <c r="E2" s="1">
         <v>58</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <v>500</v>
+      </c>
+      <c r="E3" s="1">
+        <v>93</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0</v>
+      </c>
+      <c r="G3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H3" s="14">
         <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>1</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3">
-        <v>93</v>
-      </c>
-      <c r="F3" s="3">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="3">
-        <v>19</v>
-      </c>
-      <c r="E4" s="3">
-        <v>95</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
-        <v>3</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3">
-        <v>88</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
-        <v>4</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="3">
-        <v>19</v>
-      </c>
-      <c r="E6" s="3">
-        <v>46</v>
-      </c>
-      <c r="F6" s="3">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D7" s="3">
-        <v>28</v>
-      </c>
-      <c r="E7" s="3">
-        <v>54</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3">
-        <v>18</v>
-      </c>
-      <c r="E8" s="3">
-        <v>103</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="3">
-        <v>52</v>
-      </c>
-      <c r="E9" s="3">
-        <v>83</v>
-      </c>
-      <c r="F9" s="3">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
-        <v>8</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="3">
-        <v>16</v>
-      </c>
-      <c r="E10" s="3">
-        <v>52</v>
-      </c>
-      <c r="F10" s="3">
-        <v>1</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H10" s="13" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="3">
-        <v>36</v>
-      </c>
-      <c r="E11" s="3">
-        <v>61</v>
-      </c>
-      <c r="F11" s="3">
-        <v>1</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="13" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="3">
-        <v>9</v>
-      </c>
-      <c r="E12" s="3">
-        <v>53</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="3">
-        <v>9</v>
-      </c>
-      <c r="E13" s="3">
-        <v>103</v>
-      </c>
-      <c r="F13" s="3">
-        <v>1</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3">
-        <v>12</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="3">
-        <v>8</v>
-      </c>
-      <c r="E14" s="3">
-        <v>97</v>
-      </c>
-      <c r="F14" s="3">
-        <v>1</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="13" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3">
-        <v>13</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3">
-        <v>7</v>
-      </c>
-      <c r="E15" s="3">
-        <v>99</v>
-      </c>
-      <c r="F15" s="3">
-        <v>1</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3">
-        <v>14</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="3">
-        <v>17</v>
-      </c>
-      <c r="E16" s="3">
-        <v>99</v>
-      </c>
-      <c r="F16" s="3">
-        <v>1</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -2496,76 +2125,46 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>71</v>
-      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>0.32</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
-        <v>15</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8</v>
-      </c>
-      <c r="C3" s="9">
-        <v>0.31</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3">
-        <v>9</v>
-      </c>
-      <c r="C4" s="9">
-        <v>0.23</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="3">
-        <v>6</v>
-      </c>
-      <c r="C5" s="9">
-        <v>0.4</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="6"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
-        <v>13</v>
-      </c>
-      <c r="B6" s="3">
-        <v>9</v>
-      </c>
-      <c r="C6" s="9">
-        <v>0.33</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2579,14 +2178,14 @@
   </sheetPr>
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2607,23 +2206,21 @@
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="1">
         <v>10</v>
       </c>
-      <c r="C2" s="3">
-        <v>248</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="C2" s="1">
+        <v>300</v>
+      </c>
+      <c r="D2" s="1">
         <v>50</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2641,16 +2238,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -2663,22 +2260,22 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -2695,25 +2292,25 @@
       <c r="C2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="8">
-        <v>2.916666666666667</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2.03125</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="5">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.03125</v>
+      </c>
+      <c r="F2" s="6">
         <v>14349.04677402738</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>16482.48390191806</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>11894.34371745166</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>11723.45996697625</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2727,25 +2324,25 @@
       <c r="C3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="8">
-        <v>2.583333333333333</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2.6006944444444446</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="5">
+        <v>3.5833333333333335</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.6006944444444446</v>
+      </c>
+      <c r="F3" s="6">
         <v>10216.4906544801</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>10917.40880645428</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>7834.71181146596</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>8207.77346378689</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2759,25 +2356,25 @@
       <c r="C4" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="8">
-        <v>2.6493055555555554</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2.7222222222222223</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="5">
+        <v>3.6493055555555554</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.7222222222222223</v>
+      </c>
+      <c r="F4" s="6">
         <v>13098.17994894025</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>14756.06703215216</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>10588.68124472927</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>10612.82206398645</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2791,25 +2388,25 @@
       <c r="C5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="8">
-        <v>2.4131944444444446</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.517361111111111</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="5">
+        <v>3.4131944444444446</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.517361111111111</v>
+      </c>
+      <c r="F5" s="6">
         <v>14068.56706835674</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>16092.69490876691</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="6">
         <v>11596.50307423761</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="6">
         <v>11471.40565375829</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2823,25 +2420,25 @@
       <c r="C6" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8">
-        <v>2.5625</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2.579861111111111</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="5">
+        <v>3.5625</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.579861111111111</v>
+      </c>
+      <c r="F6" s="6">
         <v>10216.4906544801</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>10917.40880645428</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>7834.71181146596</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>8207.77346378689</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2855,25 +2452,25 @@
       <c r="C7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D7" s="8">
-        <v>2.5</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.572916666666667</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.5729166666666665</v>
+      </c>
+      <c r="F7" s="6">
         <v>13098.17994894025</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>14756.06703215216</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>10588.68124472927</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>10612.82206398645</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2887,25 +2484,25 @@
       <c r="C8" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="8">
-        <v>2.454861111111111</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2.6006944444444446</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="D8" s="5">
+        <v>3.454861111111111</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.6006944444444446</v>
+      </c>
+      <c r="F8" s="6">
         <v>15101.97281401014</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>17535.97116344555</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>12707.57161381932</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>12408.17103308309</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2919,25 +2516,25 @@
       <c r="C9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="8">
-        <v>2.135416666666667</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.354166666666667</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="5">
+        <v>3.1354166666666665</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.3541666666666665</v>
+      </c>
+      <c r="F9" s="6">
         <v>16520.30166929646</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>19546.57876274314</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>14290.39307090117</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>13727.8383653278</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2951,25 +2548,25 @@
       <c r="C10" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="8">
-        <v>2.5625</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2.739583333333333</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="D10" s="5">
+        <v>3.5625</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.7395833333333335</v>
+      </c>
+      <c r="F10" s="6">
         <v>15756.05703560259</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>18459.13930942188</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>13429.53773782059</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>13012.0998002059</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -2983,25 +2580,25 @@
       <c r="C11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D11" s="8">
-        <v>2.5868055555555554</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.6180555555555554</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="5">
+        <v>3.5868055555555554</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.6180555555555554</v>
+      </c>
+      <c r="F11" s="6">
         <v>11225.28668868037</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>12235.8570492468</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>8753.575914428899</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>9021.9884493102</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3015,25 +2612,25 @@
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="8">
-        <v>2.8506944444444446</v>
-      </c>
-      <c r="E12" s="8">
-        <v>2.970833333333333</v>
-      </c>
-      <c r="F12" s="9">
+      <c r="D12" s="5">
+        <v>3.8506944444444446</v>
+      </c>
+      <c r="E12" s="5">
+        <v>3.970833333333333</v>
+      </c>
+      <c r="F12" s="6">
         <v>14491.89455042873</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="6">
         <v>16681.56821674581</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="6">
         <v>12047.11574401635</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="6">
         <v>11852.47131734378</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3047,25 +2644,25 @@
       <c r="C13" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="8">
-        <v>2.75</v>
-      </c>
-      <c r="E13" s="8">
-        <v>2.9375</v>
-      </c>
-      <c r="F13" s="9">
+      <c r="D13" s="5">
+        <v>3.75</v>
+      </c>
+      <c r="E13" s="5">
+        <v>3.9375</v>
+      </c>
+      <c r="F13" s="6">
         <v>15957.23803353039</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="6">
         <v>18744.50288997563</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="6">
         <v>13654.37976519675</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="6">
         <v>13199.48076951687</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3079,25 +2676,25 @@
       <c r="C14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="8">
-        <v>2.625</v>
-      </c>
-      <c r="E14" s="8">
-        <v>2.6840277777777777</v>
-      </c>
-      <c r="F14" s="9">
+      <c r="D14" s="5">
+        <v>3.625</v>
+      </c>
+      <c r="E14" s="5">
+        <v>3.6840277777777777</v>
+      </c>
+      <c r="F14" s="6">
         <v>12577.89656198255</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="6">
         <v>14047.5867036687</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="6">
         <v>10063.60108379179</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="6">
         <v>10161.62788156483</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3111,25 +2708,25 @@
       <c r="C15" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="D15" s="8">
-        <v>2.3402777777777777</v>
-      </c>
-      <c r="E15" s="8">
-        <v>2.5340277777777778</v>
-      </c>
-      <c r="F15" s="9">
+      <c r="D15" s="5">
+        <v>3.3402777777777777</v>
+      </c>
+      <c r="E15" s="5">
+        <v>3.5340277777777778</v>
+      </c>
+      <c r="F15" s="6">
         <v>16074.47841011319</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="6">
         <v>18911.100550591</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="6">
         <v>13785.99851684263</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="6">
         <v>13309.02281110185</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3143,25 +2740,25 @@
       <c r="C16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="8">
-        <v>2.232638888888889</v>
-      </c>
-      <c r="E16" s="8">
-        <v>2.357638888888889</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="D16" s="5">
+        <v>3.232638888888889</v>
+      </c>
+      <c r="E16" s="5">
+        <v>3.357638888888889</v>
+      </c>
+      <c r="F16" s="6">
         <v>14613.40422760044</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="6">
         <v>16851.20883267514</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="6">
         <v>12177.63352541493</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="6">
         <v>11962.54595167391</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3175,25 +2772,25 @@
       <c r="C17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="8">
-        <v>2.920138888888889</v>
-      </c>
-      <c r="E17" s="8">
-        <v>2.9375</v>
-      </c>
-      <c r="F17" s="9">
+      <c r="D17" s="5">
+        <v>3.920138888888889</v>
+      </c>
+      <c r="E17" s="5">
+        <v>3.9375</v>
+      </c>
+      <c r="F17" s="6">
         <v>10216.4906544801</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="6">
         <v>10917.40880645428</v>
       </c>
-      <c r="H17" s="9">
+      <c r="H17" s="6">
         <v>7834.71181146596</v>
       </c>
-      <c r="I17" s="9">
+      <c r="I17" s="6">
         <v>8207.77346378689</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3207,25 +2804,25 @@
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D18" s="8">
-        <v>2.236111111111111</v>
-      </c>
-      <c r="E18" s="8">
-        <v>2.2881944444444446</v>
-      </c>
-      <c r="F18" s="9">
+      <c r="D18" s="5">
+        <v>3.236111111111111</v>
+      </c>
+      <c r="E18" s="5">
+        <v>3.2881944444444446</v>
+      </c>
+      <c r="F18" s="6">
         <v>12287.38623422546</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="6">
         <v>13654.66019476348</v>
       </c>
-      <c r="H18" s="9">
+      <c r="H18" s="6">
         <v>9775.331466720872</v>
       </c>
-      <c r="I18" s="9">
+      <c r="I18" s="6">
         <v>9912.660552270994</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3239,25 +2836,25 @@
       <c r="C19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="8">
-        <v>2.916666666666667</v>
-      </c>
-      <c r="E19" s="8">
-        <v>2.9756944444444446</v>
-      </c>
-      <c r="F19" s="9">
+      <c r="D19" s="5">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E19" s="5">
+        <v>3.9756944444444446</v>
+      </c>
+      <c r="F19" s="6">
         <v>12577.89656198255</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="6">
         <v>14047.5867036687</v>
       </c>
-      <c r="H19" s="9">
+      <c r="H19" s="6">
         <v>10063.60108379179</v>
       </c>
-      <c r="I19" s="9">
+      <c r="I19" s="6">
         <v>10161.62788156483</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3271,25 +2868,25 @@
       <c r="C20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="8">
-        <v>2.673611111111111</v>
-      </c>
-      <c r="E20" s="8">
-        <v>2.8618055555555557</v>
-      </c>
-      <c r="F20" s="9">
+      <c r="D20" s="5">
+        <v>3.673611111111111</v>
+      </c>
+      <c r="E20" s="5">
+        <v>3.8618055555555557</v>
+      </c>
+      <c r="F20" s="6">
         <v>15970.38900686573</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="6">
         <v>18763.17942576174</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="6">
         <v>13669.12206291697</v>
       </c>
-      <c r="I20" s="9">
+      <c r="I20" s="6">
         <v>13211.75567808798</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3303,25 +2900,25 @@
       <c r="C21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D21" s="8">
-        <v>2.6631944444444446</v>
-      </c>
-      <c r="E21" s="8">
-        <v>2.7881944444444446</v>
-      </c>
-      <c r="F21" s="9">
+      <c r="D21" s="5">
+        <v>3.6631944444444446</v>
+      </c>
+      <c r="E21" s="5">
+        <v>3.7881944444444446</v>
+      </c>
+      <c r="F21" s="6">
         <v>14613.40422760044</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="6">
         <v>16851.20883267514</v>
       </c>
-      <c r="H21" s="9">
+      <c r="H21" s="6">
         <v>12177.63352541493</v>
       </c>
-      <c r="I21" s="9">
+      <c r="I21" s="6">
         <v>11962.54595167391</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3341,16 +2938,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -3363,22 +2960,22 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="6" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
@@ -3395,25 +2992,25 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="8">
-        <v>2.833333333333333</v>
-      </c>
-      <c r="E2" s="8">
-        <v>2.892361111111111</v>
-      </c>
-      <c r="F2" s="9">
+      <c r="D2" s="5">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.892361111111111</v>
+      </c>
+      <c r="F2" s="6">
         <v>12577.89656198255</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="6">
         <v>14047.5867036687</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="6">
         <v>10063.60108379179</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="6">
         <v>10161.62788156483</v>
       </c>
-      <c r="J2" s="3">
+      <c r="J2" s="1">
         <v>4500</v>
       </c>
     </row>
@@ -3427,25 +3024,25 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="8">
-        <v>2.833333333333333</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2.892361111111111</v>
-      </c>
-      <c r="F3" s="9">
+      <c r="D3" s="5">
+        <v>3.8333333333333335</v>
+      </c>
+      <c r="E3" s="5">
+        <v>3.892361111111111</v>
+      </c>
+      <c r="F3" s="6">
         <v>12577.89656198255</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="6">
         <v>14047.5867036687</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="6">
         <v>10063.60108379179</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="6">
         <v>10161.62788156483</v>
       </c>
-      <c r="J3" s="3">
+      <c r="J3" s="1">
         <v>4500</v>
       </c>
     </row>
@@ -3459,25 +3056,25 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="8">
-        <v>2.875</v>
-      </c>
-      <c r="E4" s="8">
-        <v>2.923611111111111</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="D4" s="5">
+        <v>3.875</v>
+      </c>
+      <c r="E4" s="5">
+        <v>3.923611111111111</v>
+      </c>
+      <c r="F4" s="6">
         <v>12132.6083137408</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="6">
         <v>13446.13117498689</v>
       </c>
-      <c r="H4" s="9">
+      <c r="H4" s="6">
         <v>9623.236629957932</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="6">
         <v>9780.9174383928</v>
       </c>
-      <c r="J4" s="3">
+      <c r="J4" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3491,25 +3088,25 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="8">
-        <v>2.2152777777777777</v>
-      </c>
-      <c r="E5" s="8">
-        <v>2.635416666666667</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="D5" s="5">
+        <v>3.2152777777777777</v>
+      </c>
+      <c r="E5" s="5">
+        <v>3.6354166666666665</v>
+      </c>
+      <c r="F5" s="6">
         <v>18787.84474681594</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="6">
         <v>22823.4721537797</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>1000000</v>
       </c>
-      <c r="I5" s="3">
+      <c r="I5" s="1">
         <v>1000000</v>
       </c>
-      <c r="J5" s="3">
+      <c r="J5" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3523,25 +3120,25 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="8">
-        <v>2.173611111111111</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2.6805555555555554</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="D6" s="5">
+        <v>3.173611111111111</v>
+      </c>
+      <c r="E6" s="5">
+        <v>3.6805555555555554</v>
+      </c>
+      <c r="F6" s="6">
         <v>20186.70418251475</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>24878.72834226834</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>1000000</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>1000000</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3555,25 +3152,25 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8">
-        <v>2.3125</v>
-      </c>
-      <c r="E7" s="8">
-        <v>2.40625</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="D7" s="5">
+        <v>3.3125</v>
+      </c>
+      <c r="E7" s="5">
+        <v>3.40625</v>
+      </c>
+      <c r="F7" s="6">
         <v>13769.20743966</v>
       </c>
-      <c r="G7" s="9">
+      <c r="G7" s="6">
         <v>15678.33337062094</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="6">
         <v>11281.78538034747</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="6">
         <v>11204.26644645922</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3587,25 +3184,25 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="8">
-        <v>2.333333333333333</v>
-      </c>
-      <c r="E8" s="8">
-        <v>2.392361111111111</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="D8" s="5">
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="E8" s="5">
+        <v>3.392361111111111</v>
+      </c>
+      <c r="F8" s="6">
         <v>12577.89656198255</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="6">
         <v>14047.5867036687</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="6">
         <v>10063.60108379179</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="6">
         <v>10161.62788156483</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="1">
         <v>4500</v>
       </c>
     </row>
@@ -3619,25 +3216,25 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="8">
-        <v>2.916666666666667</v>
-      </c>
-      <c r="E9" s="8">
-        <v>2.9756944444444446</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="D9" s="5">
+        <v>3.9166666666666665</v>
+      </c>
+      <c r="E9" s="5">
+        <v>3.9756944444444446</v>
+      </c>
+      <c r="F9" s="6">
         <v>12577.89656198255</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="6">
         <v>14047.5867036687</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="6">
         <v>10063.60108379179</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="6">
         <v>10161.62788156483</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="1">
         <v>4500</v>
       </c>
     </row>
@@ -3651,25 +3248,25 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="8">
-        <v>2.236111111111111</v>
-      </c>
-      <c r="E10" s="8">
-        <v>2.295138888888889</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="D10" s="5">
+        <v>3.236111111111111</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.295138888888889</v>
+      </c>
+      <c r="F10" s="6">
         <v>12577.89656198255</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="6">
         <v>14047.5867036687</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="6">
         <v>10063.60108379179</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="6">
         <v>10161.62788156483</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3683,25 +3280,25 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="8">
-        <v>2.9444444444444446</v>
-      </c>
-      <c r="E11" s="8">
-        <v>2.045138888888889</v>
-      </c>
-      <c r="F11" s="9">
+      <c r="D11" s="5">
+        <v>3.9444444444444446</v>
+      </c>
+      <c r="E11" s="5">
+        <v>3.045138888888889</v>
+      </c>
+      <c r="F11" s="6">
         <v>13971.03580454209</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="6">
         <v>15957.50464624136</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="6">
         <v>11493.60456414206</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="6">
         <v>11384.15579240081</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="1">
         <v>1000000</v>
       </c>
     </row>
@@ -3721,14 +3318,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -3758,7 +3355,7 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="3">
+      <c r="A2" s="1">
         <v>780</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -3767,24 +3364,24 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="1">
         <v>209</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="1">
         <v>345</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="3">
+      <c r="H2" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>781</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -3793,24 +3390,24 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <v>206</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="1">
         <v>350</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="3">
+      <c r="A4" s="1">
         <v>782</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -3819,24 +3416,24 @@
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <v>212</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="1">
         <v>330</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="3">
+      <c r="A5" s="1">
         <v>783</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -3845,24 +3442,24 @@
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <v>192</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="1">
         <v>339</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="3">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3">
+      <c r="A6" s="1">
         <v>784</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -3871,24 +3468,24 @@
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <v>173</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="1">
         <v>326</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>785</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -3897,24 +3494,24 @@
       <c r="C7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>205</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>265</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="3">
+      <c r="H7" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>786</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -3923,24 +3520,24 @@
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>171</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>302</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>787</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -3949,24 +3546,24 @@
       <c r="C9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <v>164</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="1">
         <v>287</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="1">
         <v>0</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3">
+      <c r="H9" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>788</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -3975,24 +3572,24 @@
       <c r="C10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <v>199</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="1">
         <v>222</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="1">
         <v>0</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="1">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>789</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -4001,19 +3598,19 @@
       <c r="C11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <v>152</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="1">
         <v>287</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="1">
         <v>0</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="3">
+      <c r="H11" s="1">
         <v>0</v>
       </c>
     </row>

--- a/Group_16_copycopy.xlsx
+++ b/Group_16_copycopy.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Flight"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="74">
   <si>
     <t>Itin No.</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>AR1920</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -246,7 +249,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,12 +260,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -294,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="16">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -321,22 +318,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -347,23 +332,11 @@
     <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="22" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -667,7 +640,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J105"/>
+  <dimension ref="A1:J104"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -676,16 +649,16 @@
     <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="21" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="21" width="13.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="22" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="23" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="15" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="15" width="13.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>24</v>
       </c>
@@ -695,25 +668,25 @@
       <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>33</v>
       </c>
     </row>
@@ -727,10 +700,10 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="12">
         <v>44927.583333333336</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="12">
         <v>44927.625</v>
       </c>
       <c r="F2" s="6">
@@ -759,10 +732,10 @@
       <c r="C3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="16">
+      <c r="D3" s="12">
         <v>44927.708333333336</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="12">
         <v>44927.75</v>
       </c>
       <c r="F3" s="6">
@@ -782,11 +755,17 @@
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="A4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
@@ -794,15 +773,21 @@
       <c r="J4" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="A5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
       <c r="J5" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
@@ -907,11 +892,11 @@
       <c r="C14" s="2"/>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="2"/>
@@ -919,11 +904,11 @@
       <c r="C15" s="2"/>
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="2"/>
@@ -931,11 +916,11 @@
       <c r="C16" s="2"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="2"/>
@@ -943,11 +928,11 @@
       <c r="C17" s="2"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="2"/>
@@ -955,11 +940,11 @@
       <c r="C18" s="2"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="2"/>
@@ -967,11 +952,11 @@
       <c r="C19" s="2"/>
       <c r="D19" s="5"/>
       <c r="E19" s="5"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="2"/>
@@ -979,11 +964,11 @@
       <c r="C20" s="2"/>
       <c r="D20" s="5"/>
       <c r="E20" s="5"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="2"/>
@@ -991,11 +976,11 @@
       <c r="C21" s="2"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="2"/>
@@ -1003,11 +988,11 @@
       <c r="C22" s="2"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="2"/>
@@ -1015,11 +1000,11 @@
       <c r="C23" s="2"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="2"/>
@@ -1027,23 +1012,23 @@
       <c r="C24" s="2"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
-      <c r="F24" s="18"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
       <c r="A26" s="2"/>
@@ -1051,11 +1036,11 @@
       <c r="C26" s="2"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
       <c r="A27" s="2"/>
@@ -1063,11 +1048,11 @@
       <c r="C27" s="2"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
-      <c r="F27" s="18"/>
-      <c r="G27" s="18"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
       <c r="A28" s="2"/>
@@ -1075,11 +1060,11 @@
       <c r="C28" s="2"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="19"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
       <c r="A29" s="2"/>
@@ -1087,11 +1072,11 @@
       <c r="C29" s="2"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
       <c r="A30" s="2"/>
@@ -1099,11 +1084,11 @@
       <c r="C30" s="2"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="19"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
       <c r="A31" s="2"/>
@@ -1111,11 +1096,11 @@
       <c r="C31" s="2"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
-      <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
       <c r="A32" s="2"/>
@@ -1123,11 +1108,11 @@
       <c r="C32" s="2"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
       <c r="A33" s="2"/>
@@ -1135,11 +1120,11 @@
       <c r="C33" s="2"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
       <c r="A34" s="2"/>
@@ -1147,11 +1132,11 @@
       <c r="C34" s="2"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
       <c r="A35" s="2"/>
@@ -1159,11 +1144,11 @@
       <c r="C35" s="2"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
       <c r="A36" s="2"/>
@@ -1171,11 +1156,11 @@
       <c r="C36" s="2"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="19"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
       <c r="A37" s="2"/>
@@ -1183,11 +1168,11 @@
       <c r="C37" s="2"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="19"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
       <c r="A38" s="2"/>
@@ -1195,11 +1180,11 @@
       <c r="C38" s="2"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="19"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
       <c r="A39" s="2"/>
@@ -1207,11 +1192,11 @@
       <c r="C39" s="2"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
       <c r="A40" s="2"/>
@@ -1219,11 +1204,11 @@
       <c r="C40" s="2"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
       <c r="A41" s="2"/>
@@ -1231,11 +1216,11 @@
       <c r="C41" s="2"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="42" customHeight="1" ht="18.75">
       <c r="A42" s="2"/>
@@ -1243,11 +1228,11 @@
       <c r="C42" s="2"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="43" customHeight="1" ht="18.75">
       <c r="A43" s="2"/>
@@ -1255,11 +1240,11 @@
       <c r="C43" s="2"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="44" customHeight="1" ht="18.75">
       <c r="A44" s="2"/>
@@ -1267,11 +1252,11 @@
       <c r="C44" s="2"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="45" customHeight="1" ht="18.75">
       <c r="A45" s="2"/>
@@ -1279,11 +1264,11 @@
       <c r="C45" s="2"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="19"/>
-      <c r="I45" s="19"/>
-      <c r="J45" s="19"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="46" customHeight="1" ht="18.75">
       <c r="A46" s="2"/>
@@ -1291,11 +1276,11 @@
       <c r="C46" s="2"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="19"/>
-      <c r="I46" s="19"/>
-      <c r="J46" s="19"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="47" customHeight="1" ht="18.75">
       <c r="A47" s="2"/>
@@ -1303,11 +1288,11 @@
       <c r="C47" s="2"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
-      <c r="F47" s="18"/>
-      <c r="G47" s="18"/>
-      <c r="H47" s="19"/>
-      <c r="I47" s="19"/>
-      <c r="J47" s="19"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="48" customHeight="1" ht="18.75">
       <c r="A48" s="2"/>
@@ -1315,11 +1300,11 @@
       <c r="C48" s="2"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="18"/>
-      <c r="H48" s="19"/>
-      <c r="I48" s="19"/>
-      <c r="J48" s="19"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="6"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="49" customHeight="1" ht="18.75">
       <c r="A49" s="2"/>
@@ -1327,11 +1312,11 @@
       <c r="C49" s="2"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
-      <c r="F49" s="18"/>
-      <c r="G49" s="18"/>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="19"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="6"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="50" customHeight="1" ht="18.75">
       <c r="A50" s="2"/>
@@ -1339,23 +1324,23 @@
       <c r="C50" s="2"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="18"/>
-      <c r="G50" s="18"/>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="19"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="51" customHeight="1" ht="18.75">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="18"/>
-      <c r="G51" s="18"/>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="19"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="12"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="6"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="52" customHeight="1" ht="18.75">
       <c r="A52" s="2"/>
@@ -1363,11 +1348,11 @@
       <c r="C52" s="2"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="18"/>
-      <c r="G52" s="18"/>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="19"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="53" customHeight="1" ht="18.75">
       <c r="A53" s="2"/>
@@ -1375,11 +1360,11 @@
       <c r="C53" s="2"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
-      <c r="F53" s="18"/>
-      <c r="G53" s="18"/>
-      <c r="H53" s="19"/>
-      <c r="I53" s="19"/>
-      <c r="J53" s="19"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="54" customHeight="1" ht="18.75">
       <c r="A54" s="2"/>
@@ -1387,11 +1372,11 @@
       <c r="C54" s="2"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
-      <c r="F54" s="18"/>
-      <c r="G54" s="18"/>
-      <c r="H54" s="19"/>
-      <c r="I54" s="19"/>
-      <c r="J54" s="19"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="55" customHeight="1" ht="18.75">
       <c r="A55" s="2"/>
@@ -1399,11 +1384,11 @@
       <c r="C55" s="2"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="19"/>
-      <c r="I55" s="19"/>
-      <c r="J55" s="19"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="56" customHeight="1" ht="18.75">
       <c r="A56" s="2"/>
@@ -1411,11 +1396,11 @@
       <c r="C56" s="2"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="19"/>
-      <c r="I56" s="19"/>
-      <c r="J56" s="19"/>
+      <c r="F56" s="6"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="J56" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="57" customHeight="1" ht="18.75">
       <c r="A57" s="2"/>
@@ -1423,11 +1408,11 @@
       <c r="C57" s="2"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
-      <c r="F57" s="18"/>
-      <c r="G57" s="18"/>
-      <c r="H57" s="19"/>
-      <c r="I57" s="19"/>
-      <c r="J57" s="19"/>
+      <c r="F57" s="6"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="1"/>
+      <c r="I57" s="1"/>
+      <c r="J57" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="58" customHeight="1" ht="18.75">
       <c r="A58" s="2"/>
@@ -1435,11 +1420,11 @@
       <c r="C58" s="2"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
-      <c r="F58" s="18"/>
-      <c r="G58" s="18"/>
-      <c r="H58" s="19"/>
-      <c r="I58" s="19"/>
-      <c r="J58" s="19"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="6"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="1"/>
+      <c r="J58" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="18.75">
       <c r="A59" s="2"/>
@@ -1447,11 +1432,11 @@
       <c r="C59" s="2"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
-      <c r="F59" s="18"/>
-      <c r="G59" s="18"/>
-      <c r="H59" s="19"/>
-      <c r="I59" s="19"/>
-      <c r="J59" s="19"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="1"/>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="18.75">
       <c r="A60" s="2"/>
@@ -1459,11 +1444,11 @@
       <c r="C60" s="2"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
-      <c r="F60" s="18"/>
-      <c r="G60" s="18"/>
-      <c r="H60" s="19"/>
-      <c r="I60" s="19"/>
-      <c r="J60" s="19"/>
+      <c r="F60" s="6"/>
+      <c r="G60" s="6"/>
+      <c r="H60" s="1"/>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="18.75">
       <c r="A61" s="2"/>
@@ -1471,11 +1456,11 @@
       <c r="C61" s="2"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
-      <c r="F61" s="18"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="19"/>
-      <c r="I61" s="19"/>
-      <c r="J61" s="19"/>
+      <c r="F61" s="6"/>
+      <c r="G61" s="6"/>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+      <c r="J61" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="18.75">
       <c r="A62" s="2"/>
@@ -1483,11 +1468,11 @@
       <c r="C62" s="2"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
-      <c r="F62" s="18"/>
-      <c r="G62" s="18"/>
-      <c r="H62" s="19"/>
-      <c r="I62" s="19"/>
-      <c r="J62" s="19"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+      <c r="J62" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="18.75">
       <c r="A63" s="2"/>
@@ -1495,11 +1480,11 @@
       <c r="C63" s="2"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
-      <c r="F63" s="18"/>
-      <c r="G63" s="18"/>
-      <c r="H63" s="19"/>
-      <c r="I63" s="19"/>
-      <c r="J63" s="19"/>
+      <c r="F63" s="6"/>
+      <c r="G63" s="6"/>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+      <c r="J63" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="18.75">
       <c r="A64" s="2"/>
@@ -1507,11 +1492,11 @@
       <c r="C64" s="2"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
-      <c r="F64" s="18"/>
-      <c r="G64" s="18"/>
-      <c r="H64" s="19"/>
-      <c r="I64" s="19"/>
-      <c r="J64" s="19"/>
+      <c r="F64" s="6"/>
+      <c r="G64" s="6"/>
+      <c r="H64" s="1"/>
+      <c r="I64" s="1"/>
+      <c r="J64" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="18.75">
       <c r="A65" s="2"/>
@@ -1519,11 +1504,11 @@
       <c r="C65" s="2"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
-      <c r="F65" s="18"/>
-      <c r="G65" s="18"/>
-      <c r="H65" s="19"/>
-      <c r="I65" s="19"/>
-      <c r="J65" s="19"/>
+      <c r="F65" s="6"/>
+      <c r="G65" s="6"/>
+      <c r="H65" s="1"/>
+      <c r="I65" s="1"/>
+      <c r="J65" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="18.75">
       <c r="A66" s="2"/>
@@ -1531,11 +1516,11 @@
       <c r="C66" s="2"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
-      <c r="F66" s="18"/>
-      <c r="G66" s="18"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="19"/>
+      <c r="F66" s="6"/>
+      <c r="G66" s="6"/>
+      <c r="H66" s="1"/>
+      <c r="I66" s="1"/>
+      <c r="J66" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="18.75">
       <c r="A67" s="2"/>
@@ -1543,11 +1528,11 @@
       <c r="C67" s="2"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
-      <c r="F67" s="18"/>
-      <c r="G67" s="18"/>
-      <c r="H67" s="19"/>
-      <c r="I67" s="19"/>
-      <c r="J67" s="19"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="1"/>
+      <c r="I67" s="1"/>
+      <c r="J67" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="18.75">
       <c r="A68" s="2"/>
@@ -1555,11 +1540,11 @@
       <c r="C68" s="2"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="18"/>
-      <c r="H68" s="19"/>
-      <c r="I68" s="19"/>
-      <c r="J68" s="19"/>
+      <c r="F68" s="6"/>
+      <c r="G68" s="6"/>
+      <c r="H68" s="1"/>
+      <c r="I68" s="1"/>
+      <c r="J68" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="18.75">
       <c r="A69" s="2"/>
@@ -1567,11 +1552,11 @@
       <c r="C69" s="2"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
-      <c r="F69" s="18"/>
-      <c r="G69" s="18"/>
-      <c r="H69" s="19"/>
-      <c r="I69" s="19"/>
-      <c r="J69" s="19"/>
+      <c r="F69" s="6"/>
+      <c r="G69" s="6"/>
+      <c r="H69" s="1"/>
+      <c r="I69" s="1"/>
+      <c r="J69" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="18.75">
       <c r="A70" s="2"/>
@@ -1579,11 +1564,11 @@
       <c r="C70" s="2"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
-      <c r="F70" s="18"/>
-      <c r="G70" s="18"/>
-      <c r="H70" s="19"/>
-      <c r="I70" s="19"/>
-      <c r="J70" s="19"/>
+      <c r="F70" s="6"/>
+      <c r="G70" s="6"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+      <c r="J70" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="18.75">
       <c r="A71" s="2"/>
@@ -1591,11 +1576,11 @@
       <c r="C71" s="2"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
-      <c r="F71" s="18"/>
-      <c r="G71" s="18"/>
-      <c r="H71" s="19"/>
-      <c r="I71" s="19"/>
-      <c r="J71" s="19"/>
+      <c r="F71" s="6"/>
+      <c r="G71" s="6"/>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+      <c r="J71" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="18.75">
       <c r="A72" s="2"/>
@@ -1603,11 +1588,11 @@
       <c r="C72" s="2"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
-      <c r="F72" s="18"/>
-      <c r="G72" s="18"/>
-      <c r="H72" s="19"/>
-      <c r="I72" s="19"/>
-      <c r="J72" s="19"/>
+      <c r="F72" s="6"/>
+      <c r="G72" s="6"/>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+      <c r="J72" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="18.75">
       <c r="A73" s="2"/>
@@ -1615,11 +1600,11 @@
       <c r="C73" s="2"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
-      <c r="F73" s="18"/>
-      <c r="G73" s="18"/>
-      <c r="H73" s="19"/>
-      <c r="I73" s="19"/>
-      <c r="J73" s="19"/>
+      <c r="F73" s="6"/>
+      <c r="G73" s="6"/>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+      <c r="J73" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="18.75">
       <c r="A74" s="2"/>
@@ -1627,11 +1612,11 @@
       <c r="C74" s="2"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
-      <c r="F74" s="18"/>
-      <c r="G74" s="18"/>
-      <c r="H74" s="19"/>
-      <c r="I74" s="19"/>
-      <c r="J74" s="19"/>
+      <c r="F74" s="6"/>
+      <c r="G74" s="6"/>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+      <c r="J74" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="18.75">
       <c r="A75" s="2"/>
@@ -1639,11 +1624,11 @@
       <c r="C75" s="2"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="19"/>
+      <c r="F75" s="6"/>
+      <c r="G75" s="6"/>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+      <c r="J75" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="18.75">
       <c r="A76" s="2"/>
@@ -1651,11 +1636,11 @@
       <c r="C76" s="2"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
-      <c r="F76" s="18"/>
-      <c r="G76" s="18"/>
-      <c r="H76" s="19"/>
-      <c r="I76" s="19"/>
-      <c r="J76" s="19"/>
+      <c r="F76" s="6"/>
+      <c r="G76" s="6"/>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+      <c r="J76" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="18.75">
       <c r="A77" s="2"/>
@@ -1663,11 +1648,11 @@
       <c r="C77" s="2"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
-      <c r="F77" s="18"/>
-      <c r="G77" s="18"/>
-      <c r="H77" s="19"/>
-      <c r="I77" s="19"/>
-      <c r="J77" s="19"/>
+      <c r="F77" s="6"/>
+      <c r="G77" s="6"/>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+      <c r="J77" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="18.75">
       <c r="A78" s="2"/>
@@ -1675,11 +1660,11 @@
       <c r="C78" s="2"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="18"/>
-      <c r="H78" s="19"/>
-      <c r="I78" s="19"/>
-      <c r="J78" s="19"/>
+      <c r="F78" s="6"/>
+      <c r="G78" s="6"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+      <c r="J78" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="18.75">
       <c r="A79" s="2"/>
@@ -1687,11 +1672,11 @@
       <c r="C79" s="2"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
-      <c r="F79" s="18"/>
-      <c r="G79" s="18"/>
-      <c r="H79" s="19"/>
-      <c r="I79" s="19"/>
-      <c r="J79" s="19"/>
+      <c r="F79" s="6"/>
+      <c r="G79" s="6"/>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+      <c r="J79" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="18.75">
       <c r="A80" s="2"/>
@@ -1699,11 +1684,11 @@
       <c r="C80" s="2"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="19"/>
-      <c r="I80" s="19"/>
-      <c r="J80" s="19"/>
+      <c r="F80" s="6"/>
+      <c r="G80" s="6"/>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="2"/>
@@ -1711,11 +1696,11 @@
       <c r="C81" s="2"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="19"/>
-      <c r="I81" s="19"/>
-      <c r="J81" s="19"/>
+      <c r="F81" s="6"/>
+      <c r="G81" s="6"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="2"/>
@@ -1723,11 +1708,11 @@
       <c r="C82" s="2"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
-      <c r="F82" s="18"/>
-      <c r="G82" s="18"/>
-      <c r="H82" s="19"/>
-      <c r="I82" s="19"/>
-      <c r="J82" s="19"/>
+      <c r="F82" s="6"/>
+      <c r="G82" s="6"/>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="2"/>
@@ -1735,11 +1720,11 @@
       <c r="C83" s="2"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
-      <c r="F83" s="18"/>
-      <c r="G83" s="18"/>
-      <c r="H83" s="19"/>
-      <c r="I83" s="19"/>
-      <c r="J83" s="19"/>
+      <c r="F83" s="6"/>
+      <c r="G83" s="6"/>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="2"/>
@@ -1747,11 +1732,11 @@
       <c r="C84" s="2"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
-      <c r="F84" s="18"/>
-      <c r="G84" s="18"/>
-      <c r="H84" s="19"/>
-      <c r="I84" s="19"/>
-      <c r="J84" s="19"/>
+      <c r="F84" s="6"/>
+      <c r="G84" s="6"/>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="2"/>
@@ -1759,11 +1744,11 @@
       <c r="C85" s="2"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
-      <c r="F85" s="18"/>
-      <c r="G85" s="18"/>
-      <c r="H85" s="19"/>
-      <c r="I85" s="19"/>
-      <c r="J85" s="19"/>
+      <c r="F85" s="6"/>
+      <c r="G85" s="6"/>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+      <c r="J85" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="2"/>
@@ -1771,11 +1756,11 @@
       <c r="C86" s="2"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
-      <c r="F86" s="18"/>
-      <c r="G86" s="18"/>
-      <c r="H86" s="19"/>
-      <c r="I86" s="19"/>
-      <c r="J86" s="19"/>
+      <c r="F86" s="6"/>
+      <c r="G86" s="6"/>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+      <c r="J86" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="2"/>
@@ -1783,11 +1768,11 @@
       <c r="C87" s="2"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
-      <c r="F87" s="18"/>
-      <c r="G87" s="18"/>
-      <c r="H87" s="19"/>
-      <c r="I87" s="19"/>
-      <c r="J87" s="19"/>
+      <c r="F87" s="6"/>
+      <c r="G87" s="6"/>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+      <c r="J87" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="2"/>
@@ -1795,11 +1780,11 @@
       <c r="C88" s="2"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
-      <c r="F88" s="18"/>
-      <c r="G88" s="18"/>
-      <c r="H88" s="19"/>
-      <c r="I88" s="19"/>
-      <c r="J88" s="19"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+      <c r="J88" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="2"/>
@@ -1807,11 +1792,11 @@
       <c r="C89" s="2"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
-      <c r="F89" s="18"/>
-      <c r="G89" s="18"/>
-      <c r="H89" s="19"/>
-      <c r="I89" s="19"/>
-      <c r="J89" s="19"/>
+      <c r="F89" s="6"/>
+      <c r="G89" s="6"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+      <c r="J89" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="2"/>
@@ -1819,11 +1804,11 @@
       <c r="C90" s="2"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
-      <c r="F90" s="18"/>
-      <c r="G90" s="18"/>
-      <c r="H90" s="19"/>
-      <c r="I90" s="19"/>
-      <c r="J90" s="19"/>
+      <c r="F90" s="6"/>
+      <c r="G90" s="6"/>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+      <c r="J90" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="2"/>
@@ -1831,23 +1816,23 @@
       <c r="C91" s="2"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
-      <c r="F91" s="18"/>
-      <c r="G91" s="18"/>
-      <c r="H91" s="19"/>
-      <c r="I91" s="19"/>
-      <c r="J91" s="19"/>
+      <c r="F91" s="6"/>
+      <c r="G91" s="6"/>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+      <c r="J91" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
-      <c r="D92" s="20"/>
-      <c r="E92" s="20"/>
-      <c r="F92" s="18"/>
-      <c r="G92" s="18"/>
-      <c r="H92" s="19"/>
-      <c r="I92" s="19"/>
-      <c r="J92" s="19"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="12"/>
+      <c r="F92" s="6"/>
+      <c r="G92" s="6"/>
+      <c r="H92" s="1"/>
+      <c r="I92" s="1"/>
+      <c r="J92" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="18.75">
       <c r="A93" s="2"/>
@@ -1855,23 +1840,23 @@
       <c r="C93" s="2"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
-      <c r="F93" s="18"/>
-      <c r="G93" s="18"/>
-      <c r="H93" s="19"/>
-      <c r="I93" s="19"/>
-      <c r="J93" s="19"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="J93" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
-      <c r="D94" s="20"/>
-      <c r="E94" s="20"/>
-      <c r="F94" s="18"/>
-      <c r="G94" s="18"/>
-      <c r="H94" s="19"/>
-      <c r="I94" s="19"/>
-      <c r="J94" s="19"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="6"/>
+      <c r="G94" s="6"/>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="J94" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="95" customHeight="1" ht="18.75">
       <c r="A95" s="2"/>
@@ -1879,11 +1864,11 @@
       <c r="C95" s="2"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
-      <c r="F95" s="18"/>
-      <c r="G95" s="18"/>
-      <c r="H95" s="19"/>
-      <c r="I95" s="19"/>
-      <c r="J95" s="19"/>
+      <c r="F95" s="6"/>
+      <c r="G95" s="6"/>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="J95" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="18.75">
       <c r="A96" s="2"/>
@@ -1891,11 +1876,11 @@
       <c r="C96" s="2"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
-      <c r="F96" s="18"/>
-      <c r="G96" s="18"/>
-      <c r="H96" s="19"/>
-      <c r="I96" s="19"/>
-      <c r="J96" s="19"/>
+      <c r="F96" s="6"/>
+      <c r="G96" s="6"/>
+      <c r="H96" s="1"/>
+      <c r="I96" s="1"/>
+      <c r="J96" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="18.75">
       <c r="A97" s="2"/>
@@ -1903,11 +1888,11 @@
       <c r="C97" s="2"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
-      <c r="F97" s="18"/>
-      <c r="G97" s="18"/>
-      <c r="H97" s="19"/>
-      <c r="I97" s="19"/>
-      <c r="J97" s="19"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="1"/>
+      <c r="I97" s="1"/>
+      <c r="J97" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="18.75">
       <c r="A98" s="2"/>
@@ -1915,11 +1900,11 @@
       <c r="C98" s="2"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="18"/>
-      <c r="H98" s="19"/>
-      <c r="I98" s="19"/>
-      <c r="J98" s="19"/>
+      <c r="F98" s="6"/>
+      <c r="G98" s="6"/>
+      <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="J98" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="18.75">
       <c r="A99" s="2"/>
@@ -1927,11 +1912,11 @@
       <c r="C99" s="2"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
-      <c r="F99" s="18"/>
-      <c r="G99" s="18"/>
-      <c r="H99" s="19"/>
-      <c r="I99" s="19"/>
-      <c r="J99" s="19"/>
+      <c r="F99" s="6"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="1"/>
+      <c r="I99" s="1"/>
+      <c r="J99" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="18.75">
       <c r="A100" s="2"/>
@@ -1939,11 +1924,11 @@
       <c r="C100" s="2"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
-      <c r="F100" s="18"/>
-      <c r="G100" s="18"/>
-      <c r="H100" s="19"/>
-      <c r="I100" s="19"/>
-      <c r="J100" s="19"/>
+      <c r="F100" s="6"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+      <c r="J100" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="18.75">
       <c r="A101" s="2"/>
@@ -1951,11 +1936,11 @@
       <c r="C101" s="2"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="18"/>
-      <c r="G101" s="18"/>
-      <c r="H101" s="19"/>
-      <c r="I101" s="19"/>
-      <c r="J101" s="19"/>
+      <c r="F101" s="6"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
+      <c r="J101" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="18.75">
       <c r="A102" s="2"/>
@@ -1963,11 +1948,11 @@
       <c r="C102" s="2"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
-      <c r="F102" s="18"/>
-      <c r="G102" s="18"/>
-      <c r="H102" s="19"/>
-      <c r="I102" s="19"/>
-      <c r="J102" s="19"/>
+      <c r="F102" s="6"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="1"/>
+      <c r="I102" s="1"/>
+      <c r="J102" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="18.75">
       <c r="A103" s="2"/>
@@ -1975,11 +1960,11 @@
       <c r="C103" s="2"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
-      <c r="F103" s="18"/>
-      <c r="G103" s="18"/>
-      <c r="H103" s="19"/>
-      <c r="I103" s="19"/>
-      <c r="J103" s="19"/>
+      <c r="F103" s="6"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="1"/>
+      <c r="I103" s="1"/>
+      <c r="J103" s="1"/>
     </row>
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="18.75">
       <c r="A104" s="2"/>
@@ -1987,23 +1972,11 @@
       <c r="C104" s="2"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
-      <c r="F104" s="18"/>
-      <c r="G104" s="18"/>
-      <c r="H104" s="19"/>
-      <c r="I104" s="19"/>
-      <c r="J104" s="19"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="18.75">
-      <c r="A105" s="2"/>
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-      <c r="D105" s="5"/>
-      <c r="E105" s="5"/>
-      <c r="F105" s="18"/>
-      <c r="G105" s="18"/>
-      <c r="H105" s="19"/>
-      <c r="I105" s="19"/>
-      <c r="J105" s="19"/>
+      <c r="F104" s="6"/>
+      <c r="G104" s="6"/>
+      <c r="H104" s="1"/>
+      <c r="I104" s="1"/>
+      <c r="J104" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2027,7 +2000,7 @@
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="15" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="11" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
@@ -2050,10 +2023,10 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="10" t="s">
         <v>7</v>
       </c>
     </row>
@@ -2068,7 +2041,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="1">
-        <v>500</v>
+        <v>125</v>
       </c>
       <c r="E2" s="1">
         <v>58</v>
@@ -2076,7 +2049,7 @@
       <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>71</v>
       </c>
       <c r="H2" s="1">
@@ -2094,7 +2067,7 @@
         <v>8</v>
       </c>
       <c r="D3" s="1">
-        <v>500</v>
+        <v>150</v>
       </c>
       <c r="E3" s="1">
         <v>93</v>
@@ -2102,10 +2075,10 @@
       <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
     </row>
@@ -2119,25 +2092,25 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="6" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2145,26 +2118,6 @@
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="6"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2176,9 +2129,9 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2188,7 +2141,7 @@
     <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="2" t="s">
         <v>64</v>
       </c>
@@ -2202,7 +2155,7 @@
         <v>67</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="2" t="s">
         <v>29</v>
       </c>
@@ -2210,17 +2163,11 @@
         <v>10</v>
       </c>
       <c r="C2" s="1">
-        <v>300</v>
+        <v>100</v>
       </c>
       <c r="D2" s="1">
         <v>50</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2293,10 +2240,10 @@
         <v>35</v>
       </c>
       <c r="D2" s="5">
-        <v>3.9166666666666665</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="E2" s="5">
-        <v>3.03125</v>
+        <v>6.03125</v>
       </c>
       <c r="F2" s="6">
         <v>14349.04677402738</v>
@@ -2325,10 +2272,10 @@
         <v>38</v>
       </c>
       <c r="D3" s="5">
-        <v>3.5833333333333335</v>
+        <v>6.583333333333333</v>
       </c>
       <c r="E3" s="5">
-        <v>3.6006944444444446</v>
+        <v>6.600694444444445</v>
       </c>
       <c r="F3" s="6">
         <v>10216.4906544801</v>
@@ -2357,10 +2304,10 @@
         <v>40</v>
       </c>
       <c r="D4" s="5">
-        <v>3.6493055555555554</v>
+        <v>6.649305555555555</v>
       </c>
       <c r="E4" s="5">
-        <v>3.7222222222222223</v>
+        <v>6.722222222222222</v>
       </c>
       <c r="F4" s="6">
         <v>13098.17994894025</v>
@@ -2389,10 +2336,10 @@
         <v>38</v>
       </c>
       <c r="D5" s="5">
-        <v>3.4131944444444446</v>
+        <v>6.413194444444445</v>
       </c>
       <c r="E5" s="5">
-        <v>3.517361111111111</v>
+        <v>6.517361111111111</v>
       </c>
       <c r="F5" s="6">
         <v>14068.56706835674</v>
@@ -2421,10 +2368,10 @@
         <v>37</v>
       </c>
       <c r="D6" s="5">
-        <v>3.5625</v>
+        <v>6.5625</v>
       </c>
       <c r="E6" s="5">
-        <v>3.579861111111111</v>
+        <v>6.579861111111111</v>
       </c>
       <c r="F6" s="6">
         <v>10216.4906544801</v>
@@ -2453,10 +2400,10 @@
         <v>44</v>
       </c>
       <c r="D7" s="5">
-        <v>3.5</v>
+        <v>6.5</v>
       </c>
       <c r="E7" s="5">
-        <v>3.5729166666666665</v>
+        <v>6.572916666666667</v>
       </c>
       <c r="F7" s="6">
         <v>13098.17994894025</v>
@@ -2485,10 +2432,10 @@
         <v>38</v>
       </c>
       <c r="D8" s="5">
-        <v>3.454861111111111</v>
+        <v>6.454861111111111</v>
       </c>
       <c r="E8" s="5">
-        <v>3.6006944444444446</v>
+        <v>6.600694444444445</v>
       </c>
       <c r="F8" s="6">
         <v>15101.97281401014</v>
@@ -2517,10 +2464,10 @@
         <v>48</v>
       </c>
       <c r="D9" s="5">
-        <v>3.1354166666666665</v>
+        <v>6.135416666666667</v>
       </c>
       <c r="E9" s="5">
-        <v>3.3541666666666665</v>
+        <v>6.354166666666667</v>
       </c>
       <c r="F9" s="6">
         <v>16520.30166929646</v>
@@ -2549,10 +2496,10 @@
         <v>35</v>
       </c>
       <c r="D10" s="5">
-        <v>3.5625</v>
+        <v>6.5625</v>
       </c>
       <c r="E10" s="5">
-        <v>3.7395833333333335</v>
+        <v>6.739583333333333</v>
       </c>
       <c r="F10" s="6">
         <v>15756.05703560259</v>
@@ -2581,10 +2528,10 @@
         <v>51</v>
       </c>
       <c r="D11" s="5">
-        <v>3.5868055555555554</v>
+        <v>6.586805555555555</v>
       </c>
       <c r="E11" s="5">
-        <v>3.6180555555555554</v>
+        <v>6.618055555555555</v>
       </c>
       <c r="F11" s="6">
         <v>11225.28668868037</v>
@@ -2613,10 +2560,10 @@
         <v>8</v>
       </c>
       <c r="D12" s="5">
-        <v>3.8506944444444446</v>
+        <v>6.850694444444445</v>
       </c>
       <c r="E12" s="5">
-        <v>3.970833333333333</v>
+        <v>6.970833333333333</v>
       </c>
       <c r="F12" s="6">
         <v>14491.89455042873</v>
@@ -2645,10 +2592,10 @@
         <v>38</v>
       </c>
       <c r="D13" s="5">
-        <v>3.75</v>
+        <v>6.75</v>
       </c>
       <c r="E13" s="5">
-        <v>3.9375</v>
+        <v>6.9375</v>
       </c>
       <c r="F13" s="6">
         <v>15957.23803353039</v>
@@ -2677,10 +2624,10 @@
         <v>8</v>
       </c>
       <c r="D14" s="5">
-        <v>3.625</v>
+        <v>6.625</v>
       </c>
       <c r="E14" s="5">
-        <v>3.6840277777777777</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="F14" s="6">
         <v>12577.89656198255</v>
@@ -2709,10 +2656,10 @@
         <v>47</v>
       </c>
       <c r="D15" s="5">
-        <v>3.3402777777777777</v>
+        <v>6.340277777777778</v>
       </c>
       <c r="E15" s="5">
-        <v>3.5340277777777778</v>
+        <v>6.534027777777778</v>
       </c>
       <c r="F15" s="6">
         <v>16074.47841011319</v>
@@ -2741,10 +2688,10 @@
         <v>51</v>
       </c>
       <c r="D16" s="5">
-        <v>3.232638888888889</v>
+        <v>6.232638888888889</v>
       </c>
       <c r="E16" s="5">
-        <v>3.357638888888889</v>
+        <v>6.357638888888889</v>
       </c>
       <c r="F16" s="6">
         <v>14613.40422760044</v>
@@ -2773,10 +2720,10 @@
         <v>38</v>
       </c>
       <c r="D17" s="5">
-        <v>3.920138888888889</v>
+        <v>6.920138888888889</v>
       </c>
       <c r="E17" s="5">
-        <v>3.9375</v>
+        <v>6.9375</v>
       </c>
       <c r="F17" s="6">
         <v>10216.4906544801</v>
@@ -2805,10 +2752,10 @@
         <v>60</v>
       </c>
       <c r="D18" s="5">
-        <v>3.236111111111111</v>
+        <v>6.236111111111111</v>
       </c>
       <c r="E18" s="5">
-        <v>3.2881944444444446</v>
+        <v>6.288194444444445</v>
       </c>
       <c r="F18" s="6">
         <v>12287.38623422546</v>
@@ -2837,10 +2784,10 @@
         <v>8</v>
       </c>
       <c r="D19" s="5">
-        <v>3.9166666666666665</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="E19" s="5">
-        <v>3.9756944444444446</v>
+        <v>6.975694444444445</v>
       </c>
       <c r="F19" s="6">
         <v>12577.89656198255</v>
@@ -2869,10 +2816,10 @@
         <v>8</v>
       </c>
       <c r="D20" s="5">
-        <v>3.673611111111111</v>
+        <v>6.673611111111111</v>
       </c>
       <c r="E20" s="5">
-        <v>3.8618055555555557</v>
+        <v>6.861805555555556</v>
       </c>
       <c r="F20" s="6">
         <v>15970.38900686573</v>
@@ -2901,10 +2848,10 @@
         <v>51</v>
       </c>
       <c r="D21" s="5">
-        <v>3.6631944444444446</v>
+        <v>6.663194444444445</v>
       </c>
       <c r="E21" s="5">
-        <v>3.7881944444444446</v>
+        <v>6.788194444444445</v>
       </c>
       <c r="F21" s="6">
         <v>14613.40422760044</v>
@@ -2993,10 +2940,10 @@
         <v>9</v>
       </c>
       <c r="D2" s="5">
-        <v>3.8333333333333335</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="E2" s="5">
-        <v>3.892361111111111</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="F2" s="6">
         <v>12577.89656198255</v>
@@ -3025,10 +2972,10 @@
         <v>8</v>
       </c>
       <c r="D3" s="5">
-        <v>3.8333333333333335</v>
+        <v>6.833333333333333</v>
       </c>
       <c r="E3" s="5">
-        <v>3.892361111111111</v>
+        <v>6.892361111111111</v>
       </c>
       <c r="F3" s="6">
         <v>12577.89656198255</v>
@@ -3057,10 +3004,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="5">
-        <v>3.875</v>
+        <v>6.875</v>
       </c>
       <c r="E4" s="5">
-        <v>3.923611111111111</v>
+        <v>6.923611111111111</v>
       </c>
       <c r="F4" s="6">
         <v>12132.6083137408</v>
@@ -3089,10 +3036,10 @@
         <v>9</v>
       </c>
       <c r="D5" s="5">
-        <v>3.2152777777777777</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="E5" s="5">
-        <v>3.6354166666666665</v>
+        <v>6.635416666666667</v>
       </c>
       <c r="F5" s="6">
         <v>18787.84474681594</v>
@@ -3121,10 +3068,10 @@
         <v>9</v>
       </c>
       <c r="D6" s="5">
-        <v>3.173611111111111</v>
+        <v>6.173611111111111</v>
       </c>
       <c r="E6" s="5">
-        <v>3.6805555555555554</v>
+        <v>6.680555555555555</v>
       </c>
       <c r="F6" s="6">
         <v>20186.70418251475</v>
@@ -3153,10 +3100,10 @@
         <v>18</v>
       </c>
       <c r="D7" s="5">
-        <v>3.3125</v>
+        <v>6.3125</v>
       </c>
       <c r="E7" s="5">
-        <v>3.40625</v>
+        <v>6.40625</v>
       </c>
       <c r="F7" s="6">
         <v>13769.20743966</v>
@@ -3185,10 +3132,10 @@
         <v>9</v>
       </c>
       <c r="D8" s="5">
-        <v>3.3333333333333335</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="E8" s="5">
-        <v>3.392361111111111</v>
+        <v>6.392361111111111</v>
       </c>
       <c r="F8" s="6">
         <v>12577.89656198255</v>
@@ -3217,10 +3164,10 @@
         <v>8</v>
       </c>
       <c r="D9" s="5">
-        <v>3.9166666666666665</v>
+        <v>6.916666666666667</v>
       </c>
       <c r="E9" s="5">
-        <v>3.9756944444444446</v>
+        <v>6.975694444444445</v>
       </c>
       <c r="F9" s="6">
         <v>12577.89656198255</v>
@@ -3249,10 +3196,10 @@
         <v>12</v>
       </c>
       <c r="D10" s="5">
-        <v>3.236111111111111</v>
+        <v>6.236111111111111</v>
       </c>
       <c r="E10" s="5">
-        <v>3.295138888888889</v>
+        <v>6.295138888888889</v>
       </c>
       <c r="F10" s="6">
         <v>12577.89656198255</v>
@@ -3281,10 +3228,10 @@
         <v>8</v>
       </c>
       <c r="D11" s="5">
-        <v>3.9444444444444446</v>
+        <v>6.944444444444445</v>
       </c>
       <c r="E11" s="5">
-        <v>3.045138888888889</v>
+        <v>6.045138888888889</v>
       </c>
       <c r="F11" s="6">
         <v>13971.03580454209</v>
